--- a/ta/校估.xlsx
+++ b/ta/校估.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\Traffic-Assignment-Model\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF07A3E-1542-421D-B84D-D1E8BC3A765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE747D-5C2B-4B18-BA2E-40E66DCBB887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
+    <workbookView xWindow="14280" yWindow="5688" windowWidth="10500" windowHeight="8880" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,54 @@
   </si>
   <si>
     <t>民權路進城(關渡站前)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族(-中山北)東向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族(中山北-)西向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民權(-中山北)東向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民權(中山北-)西向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生(-中山北)東向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生(中山北-)西向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京(-中山北)東向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京(中山北-)西向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市民(-中山北)東向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市民(中山北-)西向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝(-中山北)東向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝(中山北-)西向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9164D99-980A-4B71-8DF4-154897590344}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -648,478 +696,512 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>3967</v>
+        <v>3568</v>
       </c>
       <c r="C4">
-        <v>4196</v>
+        <v>3281</v>
       </c>
       <c r="D4">
-        <v>8322</v>
+        <v>5865</v>
       </c>
       <c r="E4">
-        <v>15698</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>5018</v>
+        <v>3654</v>
       </c>
       <c r="C5">
-        <v>3682</v>
+        <v>3144</v>
       </c>
       <c r="D5">
-        <v>15697</v>
+        <v>5871</v>
       </c>
       <c r="E5">
-        <v>8122</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>5480</v>
+        <v>4292</v>
       </c>
       <c r="C6">
-        <v>2758</v>
+        <v>2247</v>
       </c>
       <c r="D6">
-        <v>7536</v>
+        <v>6820</v>
       </c>
       <c r="E6">
-        <v>5268</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2370</v>
+        <v>1825</v>
       </c>
       <c r="C7">
-        <v>3975</v>
+        <v>3442</v>
       </c>
       <c r="D7">
-        <v>5268</v>
+        <v>6822</v>
       </c>
       <c r="E7">
-        <v>7536</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>7719</v>
+        <v>4006</v>
       </c>
       <c r="C8">
-        <v>3181</v>
+        <v>1998</v>
       </c>
       <c r="D8">
-        <v>7607</v>
+        <v>9883</v>
       </c>
       <c r="E8">
-        <v>7609</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>2041</v>
+        <v>1379</v>
       </c>
       <c r="C9">
-        <v>6321</v>
+        <v>2430</v>
       </c>
       <c r="D9">
-        <v>7609</v>
+        <v>6387</v>
       </c>
       <c r="E9">
-        <v>7607</v>
+        <v>9883</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>7570</v>
+        <v>2367</v>
       </c>
       <c r="C10">
-        <v>4516</v>
+        <v>2101</v>
       </c>
       <c r="D10">
-        <v>5797</v>
+        <v>6753</v>
       </c>
       <c r="E10">
-        <v>5295</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>3521</v>
+        <v>1672</v>
       </c>
       <c r="C11">
-        <v>6780</v>
+        <v>1755</v>
       </c>
       <c r="D11">
-        <v>5295</v>
+        <v>8090</v>
       </c>
       <c r="E11">
-        <v>5797</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>4696</v>
+        <v>1402</v>
       </c>
       <c r="C12">
-        <v>3026</v>
+        <v>1727</v>
       </c>
       <c r="D12">
-        <v>5783</v>
+        <v>6366</v>
       </c>
       <c r="E12">
-        <v>5772</v>
+        <v>9143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>2183</v>
+        <v>1248</v>
       </c>
       <c r="C13">
-        <v>3274</v>
+        <v>1868</v>
       </c>
       <c r="D13">
-        <v>5772</v>
+        <v>9143</v>
       </c>
       <c r="E13">
-        <v>5783</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>3568</v>
+        <v>953</v>
       </c>
       <c r="C14">
-        <v>3281</v>
+        <v>480</v>
       </c>
       <c r="D14">
-        <v>5865</v>
+        <v>6366</v>
       </c>
       <c r="E14">
-        <v>5871</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>3654</v>
+        <v>826</v>
       </c>
       <c r="C15">
-        <v>3144</v>
+        <v>1081</v>
       </c>
       <c r="D15">
-        <v>5871</v>
+        <v>8518</v>
       </c>
       <c r="E15">
-        <v>5865</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>4292</v>
+        <v>1050</v>
       </c>
       <c r="C16">
-        <v>2247</v>
+        <v>970</v>
       </c>
       <c r="D16">
-        <v>6820</v>
+        <v>6641</v>
       </c>
       <c r="E16">
-        <v>6821</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>1825</v>
+        <v>620</v>
       </c>
       <c r="C17">
-        <v>3442</v>
+        <v>795</v>
       </c>
       <c r="D17">
-        <v>6822</v>
+        <v>6386</v>
       </c>
       <c r="E17">
-        <v>6820</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>4006</v>
+        <v>2176</v>
       </c>
       <c r="C18">
-        <v>1998</v>
+        <v>1943</v>
       </c>
       <c r="D18">
-        <v>9883</v>
+        <v>8149</v>
       </c>
       <c r="E18">
-        <v>6387</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>1379</v>
+        <v>1099</v>
       </c>
       <c r="C19">
-        <v>2430</v>
+        <v>1742</v>
       </c>
       <c r="D19">
-        <v>6387</v>
+        <v>8286</v>
       </c>
       <c r="E19">
-        <v>9883</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>2367</v>
+        <v>2009</v>
       </c>
       <c r="C20">
-        <v>2101</v>
+        <v>1650</v>
       </c>
       <c r="D20">
-        <v>6753</v>
+        <v>6378</v>
       </c>
       <c r="E20">
-        <v>8090</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>1672</v>
+        <v>3429</v>
       </c>
       <c r="C21">
-        <v>1755</v>
+        <v>2689</v>
       </c>
       <c r="D21">
-        <v>8090</v>
+        <v>6548</v>
       </c>
       <c r="E21">
-        <v>6753</v>
+        <v>9085</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>1402</v>
+        <v>4278</v>
       </c>
       <c r="C22">
-        <v>1727</v>
+        <v>1743</v>
       </c>
       <c r="D22">
-        <v>6366</v>
+        <v>6627</v>
       </c>
       <c r="E22">
-        <v>9143</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>1248</v>
+        <v>1122</v>
       </c>
       <c r="C23">
-        <v>1868</v>
+        <v>2408</v>
       </c>
       <c r="D23">
-        <v>9143</v>
+        <v>8346</v>
       </c>
       <c r="E23">
-        <v>6366</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>953</v>
+        <v>5089</v>
       </c>
       <c r="C24">
-        <v>480</v>
+        <v>2695</v>
       </c>
       <c r="D24">
-        <v>6366</v>
+        <v>15501</v>
       </c>
       <c r="E24">
-        <v>8517</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>826</v>
+        <v>2029</v>
       </c>
       <c r="C25">
-        <v>1081</v>
+        <v>4467</v>
       </c>
       <c r="D25">
-        <v>8518</v>
+        <v>8347</v>
       </c>
       <c r="E25">
-        <v>6359</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>1050</v>
+        <v>2204</v>
       </c>
       <c r="C26">
-        <v>970</v>
+        <v>1761</v>
       </c>
       <c r="D26">
-        <v>6641</v>
+        <v>15499</v>
       </c>
       <c r="E26">
-        <v>6386</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>620</v>
+        <v>947</v>
       </c>
       <c r="C27">
-        <v>795</v>
+        <v>1340</v>
       </c>
       <c r="D27">
-        <v>6386</v>
+        <v>8359</v>
       </c>
       <c r="E27">
-        <v>6641</v>
+        <v>15498</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B28">
-        <v>2176</v>
+        <v>2452</v>
       </c>
       <c r="C28">
-        <v>1943</v>
+        <v>1368</v>
       </c>
       <c r="D28">
-        <v>8149</v>
+        <v>9898</v>
       </c>
       <c r="E28">
-        <v>8285</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>1099</v>
+        <v>1034</v>
       </c>
       <c r="C29">
-        <v>1742</v>
+        <v>2480</v>
       </c>
       <c r="D29">
-        <v>8286</v>
+        <v>8365</v>
       </c>
       <c r="E29">
-        <v>8149</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B30">
-        <v>2009</v>
+        <v>3234</v>
       </c>
       <c r="C30">
-        <v>1650</v>
+        <v>1873</v>
       </c>
       <c r="D30">
-        <v>6378</v>
+        <v>15442</v>
       </c>
       <c r="E30">
-        <v>6379</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>3429</v>
+        <v>1317</v>
       </c>
       <c r="C31">
-        <v>2689</v>
+        <v>2726</v>
       </c>
       <c r="D31">
-        <v>6548</v>
+        <v>8371</v>
       </c>
       <c r="E31">
-        <v>9085</v>
+        <v>15443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>1909</v>
+      </c>
+      <c r="C32">
+        <v>1181</v>
+      </c>
+      <c r="D32">
+        <v>8382</v>
+      </c>
+      <c r="E32">
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>1472</v>
+      </c>
+      <c r="C33">
+        <v>1916</v>
+      </c>
+      <c r="D33">
+        <v>7928</v>
+      </c>
+      <c r="E33">
+        <v>8383</v>
       </c>
     </row>
   </sheetData>
@@ -1130,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB69EEE-758D-4994-98FD-EB06BA83BC9D}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E14" sqref="A14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1210,6 +1292,236 @@
         <v>6676</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3967</v>
+      </c>
+      <c r="C4">
+        <v>4196</v>
+      </c>
+      <c r="D4">
+        <v>8322</v>
+      </c>
+      <c r="E4">
+        <v>15698</v>
+      </c>
+      <c r="F4">
+        <v>10465</v>
+      </c>
+      <c r="G4">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5018</v>
+      </c>
+      <c r="C5">
+        <v>3682</v>
+      </c>
+      <c r="D5">
+        <v>15697</v>
+      </c>
+      <c r="E5">
+        <v>8122</v>
+      </c>
+      <c r="F5">
+        <v>10226</v>
+      </c>
+      <c r="G5">
+        <v>8126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5480</v>
+      </c>
+      <c r="C6">
+        <v>2758</v>
+      </c>
+      <c r="D6">
+        <v>7536</v>
+      </c>
+      <c r="E6">
+        <v>5268</v>
+      </c>
+      <c r="F6">
+        <v>7534</v>
+      </c>
+      <c r="G6">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2370</v>
+      </c>
+      <c r="C7">
+        <v>3975</v>
+      </c>
+      <c r="D7">
+        <v>5268</v>
+      </c>
+      <c r="E7">
+        <v>7536</v>
+      </c>
+      <c r="F7">
+        <v>6669</v>
+      </c>
+      <c r="G7">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>7719</v>
+      </c>
+      <c r="C8">
+        <v>3181</v>
+      </c>
+      <c r="D8">
+        <v>7607</v>
+      </c>
+      <c r="E8">
+        <v>7609</v>
+      </c>
+      <c r="F8">
+        <v>8111</v>
+      </c>
+      <c r="G8">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>2041</v>
+      </c>
+      <c r="C9">
+        <v>6321</v>
+      </c>
+      <c r="D9">
+        <v>7609</v>
+      </c>
+      <c r="E9">
+        <v>7607</v>
+      </c>
+      <c r="F9">
+        <v>6544</v>
+      </c>
+      <c r="G9">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>7570</v>
+      </c>
+      <c r="C10">
+        <v>4516</v>
+      </c>
+      <c r="D10">
+        <v>5797</v>
+      </c>
+      <c r="E10">
+        <v>5295</v>
+      </c>
+      <c r="F10">
+        <v>5799</v>
+      </c>
+      <c r="G10">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>3521</v>
+      </c>
+      <c r="C11">
+        <v>6780</v>
+      </c>
+      <c r="D11">
+        <v>5295</v>
+      </c>
+      <c r="E11">
+        <v>5797</v>
+      </c>
+      <c r="F11">
+        <v>6511</v>
+      </c>
+      <c r="G11">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>4696</v>
+      </c>
+      <c r="C12">
+        <v>3026</v>
+      </c>
+      <c r="D12">
+        <v>5783</v>
+      </c>
+      <c r="E12">
+        <v>5772</v>
+      </c>
+      <c r="F12">
+        <v>16895</v>
+      </c>
+      <c r="G12">
+        <v>8155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>2183</v>
+      </c>
+      <c r="C13">
+        <v>3274</v>
+      </c>
+      <c r="D13">
+        <v>5772</v>
+      </c>
+      <c r="E13">
+        <v>5783</v>
+      </c>
+      <c r="F13">
+        <v>8166</v>
+      </c>
+      <c r="G13">
+        <v>7603</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ta/校估.xlsx
+++ b/ta/校估.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\Traffic-Assignment-Model\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE747D-5C2B-4B18-BA2E-40E66DCBB887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91776D46-BC0E-4A94-8101-C21DD6984FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="5688" windowWidth="10500" windowHeight="8880" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
+    <workbookView xWindow="6288" yWindow="2400" windowWidth="10500" windowHeight="8880" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,70 @@
   </si>
   <si>
     <t>忠孝(中山北-)西向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承德入城(劍潭路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承德離城(劍潭路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山北離城(劍潭路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百齡橋進城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百齡橋出城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山北離城(通河路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生高圓山端上匝道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生高圓山端下匝道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大直橋進城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大直橋出城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復興北地下道南向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復興北地下道北向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山橋入城(劍潭路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山橋入城(通河路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環河北(-敦煌)南向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環河北(敦煌-)北向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9164D99-980A-4B71-8DF4-154897590344}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:E30"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -730,477 +794,732 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>4292</v>
+        <v>7299</v>
       </c>
       <c r="C6">
-        <v>2247</v>
+        <v>5266</v>
       </c>
       <c r="D6">
-        <v>6820</v>
+        <v>6666</v>
       </c>
       <c r="E6">
-        <v>6821</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>1825</v>
+        <v>5284</v>
       </c>
       <c r="C7">
-        <v>3442</v>
+        <v>6298</v>
       </c>
       <c r="D7">
-        <v>6822</v>
+        <v>6637</v>
       </c>
       <c r="E7">
-        <v>6820</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>4006</v>
+        <v>2623</v>
       </c>
       <c r="C8">
-        <v>1998</v>
+        <v>2584</v>
       </c>
       <c r="D8">
-        <v>9883</v>
+        <v>8607</v>
       </c>
       <c r="E8">
-        <v>6387</v>
+        <v>6813</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>1379</v>
+        <v>3503</v>
       </c>
       <c r="C9">
-        <v>2430</v>
+        <v>2802</v>
       </c>
       <c r="D9">
-        <v>6387</v>
+        <v>6813</v>
       </c>
       <c r="E9">
-        <v>9883</v>
+        <v>8607</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>2367</v>
+        <v>2053</v>
       </c>
       <c r="C10">
-        <v>2101</v>
+        <v>1367</v>
       </c>
       <c r="D10">
-        <v>6753</v>
+        <v>8289</v>
       </c>
       <c r="E10">
-        <v>8090</v>
+        <v>15667</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B11">
-        <v>1672</v>
+        <v>1383</v>
       </c>
       <c r="C11">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="D11">
-        <v>8090</v>
+        <v>15667</v>
       </c>
       <c r="E11">
-        <v>6753</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>1402</v>
+        <v>4836</v>
       </c>
       <c r="C12">
-        <v>1727</v>
+        <v>3648</v>
       </c>
       <c r="D12">
-        <v>6366</v>
+        <v>8291</v>
       </c>
       <c r="E12">
-        <v>9143</v>
+        <v>10265</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B13">
-        <v>1248</v>
+        <v>3012</v>
       </c>
       <c r="C13">
-        <v>1868</v>
+        <v>1643</v>
       </c>
       <c r="D13">
-        <v>9143</v>
+        <v>6675</v>
       </c>
       <c r="E13">
-        <v>6366</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B14">
-        <v>953</v>
+        <v>1008</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>2029</v>
       </c>
       <c r="D14">
-        <v>6366</v>
+        <v>8342</v>
       </c>
       <c r="E14">
-        <v>8517</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B15">
-        <v>826</v>
+        <v>3371</v>
       </c>
       <c r="C15">
-        <v>1081</v>
+        <v>2459</v>
       </c>
       <c r="D15">
-        <v>8518</v>
+        <v>6675</v>
       </c>
       <c r="E15">
-        <v>6359</v>
+        <v>27271</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>1050</v>
+        <v>2039</v>
       </c>
       <c r="C16">
-        <v>970</v>
+        <v>1799</v>
       </c>
       <c r="D16">
-        <v>6641</v>
+        <v>27271</v>
       </c>
       <c r="E16">
-        <v>6386</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B17">
-        <v>620</v>
+        <v>2104</v>
       </c>
       <c r="C17">
-        <v>795</v>
+        <v>2242</v>
       </c>
       <c r="D17">
-        <v>6386</v>
+        <v>6814</v>
       </c>
       <c r="E17">
-        <v>6641</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B18">
-        <v>2176</v>
+        <v>2124</v>
       </c>
       <c r="C18">
-        <v>1943</v>
+        <v>1974</v>
       </c>
       <c r="D18">
-        <v>8149</v>
+        <v>6760</v>
       </c>
       <c r="E18">
-        <v>8285</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>1099</v>
+        <v>4292</v>
       </c>
       <c r="C19">
-        <v>1742</v>
+        <v>2247</v>
       </c>
       <c r="D19">
-        <v>8286</v>
+        <v>6820</v>
       </c>
       <c r="E19">
-        <v>8149</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>2009</v>
+        <v>1825</v>
       </c>
       <c r="C20">
-        <v>1650</v>
+        <v>3442</v>
       </c>
       <c r="D20">
-        <v>6378</v>
+        <v>6822</v>
       </c>
       <c r="E20">
-        <v>6379</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>3429</v>
+        <v>4006</v>
       </c>
       <c r="C21">
-        <v>2689</v>
+        <v>1998</v>
       </c>
       <c r="D21">
-        <v>6548</v>
+        <v>9883</v>
       </c>
       <c r="E21">
-        <v>9085</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>4278</v>
+        <v>1379</v>
       </c>
       <c r="C22">
-        <v>1743</v>
+        <v>2430</v>
       </c>
       <c r="D22">
-        <v>6627</v>
+        <v>6387</v>
       </c>
       <c r="E22">
-        <v>8346</v>
+        <v>9883</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>1122</v>
+        <v>2367</v>
       </c>
       <c r="C23">
-        <v>2408</v>
+        <v>2101</v>
       </c>
       <c r="D23">
-        <v>8346</v>
+        <v>6753</v>
       </c>
       <c r="E23">
-        <v>6627</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>5089</v>
+        <v>1672</v>
       </c>
       <c r="C24">
-        <v>2695</v>
+        <v>1755</v>
       </c>
       <c r="D24">
-        <v>15501</v>
+        <v>8090</v>
       </c>
       <c r="E24">
-        <v>8353</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>2029</v>
+        <v>1402</v>
       </c>
       <c r="C25">
-        <v>4467</v>
+        <v>1727</v>
       </c>
       <c r="D25">
-        <v>8347</v>
+        <v>6366</v>
       </c>
       <c r="E25">
-        <v>15500</v>
+        <v>9143</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>2204</v>
+        <v>1248</v>
       </c>
       <c r="C26">
-        <v>1761</v>
+        <v>1868</v>
       </c>
       <c r="D26">
-        <v>15499</v>
+        <v>9143</v>
       </c>
       <c r="E26">
-        <v>8360</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="C27">
-        <v>1340</v>
+        <v>480</v>
       </c>
       <c r="D27">
-        <v>8359</v>
+        <v>6366</v>
       </c>
       <c r="E27">
-        <v>15498</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>2452</v>
+        <v>826</v>
       </c>
       <c r="C28">
-        <v>1368</v>
+        <v>1081</v>
       </c>
       <c r="D28">
-        <v>9898</v>
+        <v>8518</v>
       </c>
       <c r="E28">
-        <v>8365</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>1034</v>
+        <v>1050</v>
       </c>
       <c r="C29">
-        <v>2480</v>
+        <v>970</v>
       </c>
       <c r="D29">
-        <v>8365</v>
+        <v>6641</v>
       </c>
       <c r="E29">
-        <v>9898</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>3234</v>
+        <v>620</v>
       </c>
       <c r="C30">
-        <v>1873</v>
+        <v>795</v>
       </c>
       <c r="D30">
-        <v>15442</v>
+        <v>6386</v>
       </c>
       <c r="E30">
-        <v>8376</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>1317</v>
+        <v>2176</v>
       </c>
       <c r="C31">
-        <v>2726</v>
+        <v>1943</v>
       </c>
       <c r="D31">
-        <v>8371</v>
+        <v>8149</v>
       </c>
       <c r="E31">
-        <v>15443</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>1909</v>
+        <v>1099</v>
       </c>
       <c r="C32">
-        <v>1181</v>
+        <v>1742</v>
       </c>
       <c r="D32">
-        <v>8382</v>
+        <v>8286</v>
       </c>
       <c r="E32">
-        <v>7928</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>2009</v>
+      </c>
+      <c r="C33">
+        <v>1650</v>
+      </c>
+      <c r="D33">
+        <v>6378</v>
+      </c>
+      <c r="E33">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3429</v>
+      </c>
+      <c r="C34">
+        <v>2689</v>
+      </c>
+      <c r="D34">
+        <v>6548</v>
+      </c>
+      <c r="E34">
+        <v>9085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>2610</v>
+      </c>
+      <c r="C35">
+        <v>1973</v>
+      </c>
+      <c r="D35">
+        <v>6652</v>
+      </c>
+      <c r="E35">
+        <v>8138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>2508</v>
+      </c>
+      <c r="C36">
+        <v>2685</v>
+      </c>
+      <c r="D36">
+        <v>8137</v>
+      </c>
+      <c r="E36">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>4278</v>
+      </c>
+      <c r="C37">
+        <v>1743</v>
+      </c>
+      <c r="D37">
+        <v>6627</v>
+      </c>
+      <c r="E37">
+        <v>8346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1122</v>
+      </c>
+      <c r="C38">
+        <v>2408</v>
+      </c>
+      <c r="D38">
+        <v>8346</v>
+      </c>
+      <c r="E38">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>5089</v>
+      </c>
+      <c r="C39">
+        <v>2695</v>
+      </c>
+      <c r="D39">
+        <v>15501</v>
+      </c>
+      <c r="E39">
+        <v>8353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>2029</v>
+      </c>
+      <c r="C40">
+        <v>4467</v>
+      </c>
+      <c r="D40">
+        <v>8347</v>
+      </c>
+      <c r="E40">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>2204</v>
+      </c>
+      <c r="C41">
+        <v>1761</v>
+      </c>
+      <c r="D41">
+        <v>15499</v>
+      </c>
+      <c r="E41">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>947</v>
+      </c>
+      <c r="C42">
+        <v>1340</v>
+      </c>
+      <c r="D42">
+        <v>8359</v>
+      </c>
+      <c r="E42">
+        <v>15498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>2452</v>
+      </c>
+      <c r="C43">
+        <v>1368</v>
+      </c>
+      <c r="D43">
+        <v>9898</v>
+      </c>
+      <c r="E43">
+        <v>8365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>1034</v>
+      </c>
+      <c r="C44">
+        <v>2480</v>
+      </c>
+      <c r="D44">
+        <v>8365</v>
+      </c>
+      <c r="E44">
+        <v>9898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>3234</v>
+      </c>
+      <c r="C45">
+        <v>1873</v>
+      </c>
+      <c r="D45">
+        <v>15442</v>
+      </c>
+      <c r="E45">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>1317</v>
+      </c>
+      <c r="C46">
+        <v>2726</v>
+      </c>
+      <c r="D46">
+        <v>8371</v>
+      </c>
+      <c r="E46">
+        <v>15443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>1909</v>
+      </c>
+      <c r="C47">
+        <v>1181</v>
+      </c>
+      <c r="D47">
+        <v>8382</v>
+      </c>
+      <c r="E47">
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B33">
+      <c r="B48">
         <v>1472</v>
       </c>
-      <c r="C33">
+      <c r="C48">
         <v>1916</v>
       </c>
-      <c r="D33">
+      <c r="D48">
         <v>7928</v>
       </c>
-      <c r="E33">
+      <c r="E48">
         <v>8383</v>
       </c>
     </row>
@@ -1212,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB69EEE-758D-4994-98FD-EB06BA83BC9D}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A14:E15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1522,8 +1841,32 @@
         <v>7603</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>3431</v>
+      </c>
+      <c r="C14">
+        <v>4494</v>
+      </c>
+      <c r="D14">
+        <v>10266</v>
+      </c>
+      <c r="E14">
+        <v>8291</v>
+      </c>
+      <c r="F14">
+        <v>8334</v>
+      </c>
+      <c r="G14">
+        <v>8341</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ta/校估.xlsx
+++ b/ta/校估.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\Traffic-Assignment-Model\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91776D46-BC0E-4A94-8101-C21DD6984FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971ED556-1867-4D98-AC88-FC7676AC335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6288" yWindow="2400" windowWidth="10500" windowHeight="8880" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中山北離城(通河路)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新生高圓山端上匝道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中山橋入城(劍潭路)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中山橋入城(通河路)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +304,70 @@
   </si>
   <si>
     <t>環河北(敦煌-)北向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山北入城(劍潭路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山橋離城(通河路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水河進城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水河出城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆河進城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆河出城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族往南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族往北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山往西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山往東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北市出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +390,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,8 +420,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,1171 +761,1361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9164D99-980A-4B71-8DF4-154897590344}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>6326</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3344</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5854</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>4236</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4669</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>10115</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5854</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3568</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3281</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5865</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5871</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3654</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3144</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5871</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5865</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>7299</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5266</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6666</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8115</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5284</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6298</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6637</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6666</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>2623</v>
+      </c>
+      <c r="D8">
+        <v>2584</v>
+      </c>
+      <c r="E8">
+        <v>8607</v>
+      </c>
+      <c r="F8">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="B8">
-        <v>2623</v>
-      </c>
-      <c r="C8">
-        <v>2584</v>
-      </c>
-      <c r="D8">
+      <c r="C9">
+        <v>3503</v>
+      </c>
+      <c r="D9">
+        <v>2802</v>
+      </c>
+      <c r="E9">
+        <v>6813</v>
+      </c>
+      <c r="F9">
         <v>8607</v>
       </c>
-      <c r="E8">
-        <v>6813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>2053</v>
+      </c>
+      <c r="D10">
+        <v>1367</v>
+      </c>
+      <c r="E10">
+        <v>8289</v>
+      </c>
+      <c r="F10">
+        <v>15667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>1383</v>
+      </c>
+      <c r="D11">
+        <v>1735</v>
+      </c>
+      <c r="E11">
+        <v>15667</v>
+      </c>
+      <c r="F11">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>4836</v>
+      </c>
+      <c r="D12">
+        <v>3648</v>
+      </c>
+      <c r="E12">
+        <v>8291</v>
+      </c>
+      <c r="F12">
+        <v>10265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>3012</v>
+      </c>
+      <c r="D13">
+        <v>1643</v>
+      </c>
+      <c r="E13">
+        <v>6675</v>
+      </c>
+      <c r="F13">
+        <v>8343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>1008</v>
+      </c>
+      <c r="D14">
+        <v>2029</v>
+      </c>
+      <c r="E14">
+        <v>8342</v>
+      </c>
+      <c r="F14">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>3371</v>
+      </c>
+      <c r="D15">
+        <v>2459</v>
+      </c>
+      <c r="E15">
+        <v>6675</v>
+      </c>
+      <c r="F15">
+        <v>27271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>2039</v>
+      </c>
+      <c r="D16">
+        <v>1799</v>
+      </c>
+      <c r="E16">
+        <v>27271</v>
+      </c>
+      <c r="F16">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B9">
-        <v>3503</v>
-      </c>
-      <c r="C9">
-        <v>2802</v>
-      </c>
-      <c r="D9">
-        <v>6813</v>
-      </c>
-      <c r="E9">
-        <v>8607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>2053</v>
-      </c>
-      <c r="C10">
-        <v>1367</v>
-      </c>
-      <c r="D10">
-        <v>8289</v>
-      </c>
-      <c r="E10">
-        <v>15667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11">
-        <v>1383</v>
-      </c>
-      <c r="C11">
-        <v>1735</v>
-      </c>
-      <c r="D11">
-        <v>15667</v>
-      </c>
-      <c r="E11">
-        <v>8289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C17">
+        <v>2104</v>
+      </c>
+      <c r="D17">
+        <v>2242</v>
+      </c>
+      <c r="E17">
+        <v>6814</v>
+      </c>
+      <c r="F17">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>2124</v>
+      </c>
+      <c r="D18">
+        <v>1974</v>
+      </c>
+      <c r="E18">
+        <v>6760</v>
+      </c>
+      <c r="F18">
+        <v>6814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4292</v>
+      </c>
+      <c r="D19">
+        <v>2247</v>
+      </c>
+      <c r="E19">
+        <v>6820</v>
+      </c>
+      <c r="F19">
+        <v>6821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1825</v>
+      </c>
+      <c r="D20">
+        <v>3442</v>
+      </c>
+      <c r="E20">
+        <v>6822</v>
+      </c>
+      <c r="F20">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4006</v>
+      </c>
+      <c r="D21">
+        <v>1998</v>
+      </c>
+      <c r="E21">
+        <v>9883</v>
+      </c>
+      <c r="F21">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1379</v>
+      </c>
+      <c r="D22">
+        <v>2430</v>
+      </c>
+      <c r="E22">
+        <v>6387</v>
+      </c>
+      <c r="F22">
+        <v>9883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>2367</v>
+      </c>
+      <c r="D23">
+        <v>2101</v>
+      </c>
+      <c r="E23">
+        <v>6753</v>
+      </c>
+      <c r="F23">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1672</v>
+      </c>
+      <c r="D24">
+        <v>1755</v>
+      </c>
+      <c r="E24">
+        <v>8090</v>
+      </c>
+      <c r="F24">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>1402</v>
+      </c>
+      <c r="D25">
+        <v>1727</v>
+      </c>
+      <c r="E25">
+        <v>6366</v>
+      </c>
+      <c r="F25">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>1248</v>
+      </c>
+      <c r="D26">
+        <v>1868</v>
+      </c>
+      <c r="E26">
+        <v>9143</v>
+      </c>
+      <c r="F26">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>953</v>
+      </c>
+      <c r="D27">
+        <v>480</v>
+      </c>
+      <c r="E27">
+        <v>6366</v>
+      </c>
+      <c r="F27">
+        <v>8517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>826</v>
+      </c>
+      <c r="D28">
+        <v>1081</v>
+      </c>
+      <c r="E28">
+        <v>8518</v>
+      </c>
+      <c r="F28">
+        <v>6359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>1050</v>
+      </c>
+      <c r="D29">
+        <v>970</v>
+      </c>
+      <c r="E29">
+        <v>6641</v>
+      </c>
+      <c r="F29">
+        <v>6386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>620</v>
+      </c>
+      <c r="D30">
+        <v>795</v>
+      </c>
+      <c r="E30">
+        <v>6386</v>
+      </c>
+      <c r="F30">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>2176</v>
+      </c>
+      <c r="D31">
+        <v>1943</v>
+      </c>
+      <c r="E31">
+        <v>8149</v>
+      </c>
+      <c r="F31">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>1099</v>
+      </c>
+      <c r="D32">
+        <v>1742</v>
+      </c>
+      <c r="E32">
+        <v>8286</v>
+      </c>
+      <c r="F32">
+        <v>8149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>2009</v>
+      </c>
+      <c r="D33">
+        <v>1650</v>
+      </c>
+      <c r="E33">
+        <v>6378</v>
+      </c>
+      <c r="F33">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>3429</v>
+      </c>
+      <c r="D34">
+        <v>2689</v>
+      </c>
+      <c r="E34">
+        <v>6548</v>
+      </c>
+      <c r="F34">
+        <v>9085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="B12">
-        <v>4836</v>
-      </c>
-      <c r="C12">
-        <v>3648</v>
-      </c>
-      <c r="D12">
-        <v>8291</v>
-      </c>
-      <c r="E12">
-        <v>10265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C35">
+        <v>2610</v>
+      </c>
+      <c r="D35">
+        <v>1973</v>
+      </c>
+      <c r="E35">
+        <v>6652</v>
+      </c>
+      <c r="F35">
+        <v>8138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="B13">
-        <v>3012</v>
-      </c>
-      <c r="C13">
-        <v>1643</v>
-      </c>
-      <c r="D13">
-        <v>6675</v>
-      </c>
-      <c r="E13">
-        <v>8343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14">
-        <v>1008</v>
-      </c>
-      <c r="C14">
+      <c r="C36">
+        <v>2508</v>
+      </c>
+      <c r="D36">
+        <v>2685</v>
+      </c>
+      <c r="E36">
+        <v>8137</v>
+      </c>
+      <c r="F36">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>4278</v>
+      </c>
+      <c r="D37">
+        <v>1743</v>
+      </c>
+      <c r="E37">
+        <v>6627</v>
+      </c>
+      <c r="F37">
+        <v>8346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>1122</v>
+      </c>
+      <c r="D38">
+        <v>2408</v>
+      </c>
+      <c r="E38">
+        <v>8346</v>
+      </c>
+      <c r="F38">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>5089</v>
+      </c>
+      <c r="D39">
+        <v>2695</v>
+      </c>
+      <c r="E39">
+        <v>15501</v>
+      </c>
+      <c r="F39">
+        <v>8353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
         <v>2029</v>
       </c>
-      <c r="D14">
-        <v>8342</v>
-      </c>
-      <c r="E14">
-        <v>6675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15">
-        <v>3371</v>
-      </c>
-      <c r="C15">
-        <v>2459</v>
-      </c>
-      <c r="D15">
-        <v>6675</v>
-      </c>
-      <c r="E15">
-        <v>27271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16">
-        <v>2039</v>
-      </c>
-      <c r="C16">
-        <v>1799</v>
-      </c>
-      <c r="D16">
-        <v>27271</v>
-      </c>
-      <c r="E16">
-        <v>6675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17">
-        <v>2104</v>
-      </c>
-      <c r="C17">
-        <v>2242</v>
-      </c>
-      <c r="D17">
-        <v>6814</v>
-      </c>
-      <c r="E17">
-        <v>6760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18">
-        <v>2124</v>
-      </c>
-      <c r="C18">
-        <v>1974</v>
-      </c>
-      <c r="D18">
-        <v>6760</v>
-      </c>
-      <c r="E18">
-        <v>6814</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>4292</v>
-      </c>
-      <c r="C19">
-        <v>2247</v>
-      </c>
-      <c r="D19">
-        <v>6820</v>
-      </c>
-      <c r="E19">
-        <v>6821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>1825</v>
-      </c>
-      <c r="C20">
-        <v>3442</v>
-      </c>
-      <c r="D20">
-        <v>6822</v>
-      </c>
-      <c r="E20">
-        <v>6820</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>4006</v>
-      </c>
-      <c r="C21">
-        <v>1998</v>
-      </c>
-      <c r="D21">
-        <v>9883</v>
-      </c>
-      <c r="E21">
-        <v>6387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>1379</v>
-      </c>
-      <c r="C22">
-        <v>2430</v>
-      </c>
-      <c r="D22">
-        <v>6387</v>
-      </c>
-      <c r="E22">
-        <v>9883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>2367</v>
-      </c>
-      <c r="C23">
-        <v>2101</v>
-      </c>
-      <c r="D23">
-        <v>6753</v>
-      </c>
-      <c r="E23">
-        <v>8090</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>1672</v>
-      </c>
-      <c r="C24">
-        <v>1755</v>
-      </c>
-      <c r="D24">
-        <v>8090</v>
-      </c>
-      <c r="E24">
-        <v>6753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>1402</v>
-      </c>
-      <c r="C25">
-        <v>1727</v>
-      </c>
-      <c r="D25">
-        <v>6366</v>
-      </c>
-      <c r="E25">
-        <v>9143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>1248</v>
-      </c>
-      <c r="C26">
-        <v>1868</v>
-      </c>
-      <c r="D26">
-        <v>9143</v>
-      </c>
-      <c r="E26">
-        <v>6366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>953</v>
-      </c>
-      <c r="C27">
-        <v>480</v>
-      </c>
-      <c r="D27">
-        <v>6366</v>
-      </c>
-      <c r="E27">
-        <v>8517</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28">
-        <v>826</v>
-      </c>
-      <c r="C28">
-        <v>1081</v>
-      </c>
-      <c r="D28">
-        <v>8518</v>
-      </c>
-      <c r="E28">
-        <v>6359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29">
-        <v>1050</v>
-      </c>
-      <c r="C29">
-        <v>970</v>
-      </c>
-      <c r="D29">
-        <v>6641</v>
-      </c>
-      <c r="E29">
-        <v>6386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30">
-        <v>620</v>
-      </c>
-      <c r="C30">
-        <v>795</v>
-      </c>
-      <c r="D30">
-        <v>6386</v>
-      </c>
-      <c r="E30">
-        <v>6641</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>2176</v>
-      </c>
-      <c r="C31">
-        <v>1943</v>
-      </c>
-      <c r="D31">
-        <v>8149</v>
-      </c>
-      <c r="E31">
-        <v>8285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32">
-        <v>1099</v>
-      </c>
-      <c r="C32">
-        <v>1742</v>
-      </c>
-      <c r="D32">
-        <v>8286</v>
-      </c>
-      <c r="E32">
-        <v>8149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33">
-        <v>2009</v>
-      </c>
-      <c r="C33">
-        <v>1650</v>
-      </c>
-      <c r="D33">
-        <v>6378</v>
-      </c>
-      <c r="E33">
-        <v>6379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>3429</v>
-      </c>
-      <c r="C34">
-        <v>2689</v>
-      </c>
-      <c r="D34">
-        <v>6548</v>
-      </c>
-      <c r="E34">
-        <v>9085</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35">
-        <v>2610</v>
-      </c>
-      <c r="C35">
-        <v>1973</v>
-      </c>
-      <c r="D35">
-        <v>6652</v>
-      </c>
-      <c r="E35">
-        <v>8138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36">
-        <v>2508</v>
-      </c>
-      <c r="C36">
-        <v>2685</v>
-      </c>
-      <c r="D36">
-        <v>8137</v>
-      </c>
-      <c r="E36">
-        <v>8136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>4278</v>
-      </c>
-      <c r="C37">
-        <v>1743</v>
-      </c>
-      <c r="D37">
-        <v>6627</v>
-      </c>
-      <c r="E37">
-        <v>8346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>1122</v>
-      </c>
-      <c r="C38">
-        <v>2408</v>
-      </c>
-      <c r="D38">
-        <v>8346</v>
-      </c>
-      <c r="E38">
-        <v>6627</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>5089</v>
-      </c>
-      <c r="C39">
-        <v>2695</v>
-      </c>
-      <c r="D39">
-        <v>15501</v>
-      </c>
-      <c r="E39">
-        <v>8353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40">
-        <v>2029</v>
-      </c>
-      <c r="C40">
+      <c r="D40">
         <v>4467</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>8347</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>15500</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>2204</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1761</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>15499</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>8360</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>947</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>1340</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>8359</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>15498</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>2452</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1368</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>9898</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>8365</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>1034</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>2480</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>8365</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>9898</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3234</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>1873</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>15442</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>8376</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>1317</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>2726</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>8371</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>15443</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>1909</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1181</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>8382</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>7928</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
         <v>52</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>1472</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1916</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>7928</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>8383</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB69EEE-758D-4994-98FD-EB06BA83BC9D}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1830</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1880</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>15475</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8346</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6676</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6392</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1795</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2097</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8345</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10443</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8344</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6676</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3967</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4196</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>8322</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15698</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10465</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10225</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>5018</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3682</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>15697</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8122</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10226</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5480</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2758</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7536</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5268</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7534</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6668</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2370</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3975</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5268</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7536</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6669</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5831</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7719</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3181</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7607</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7609</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8111</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6542</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2041</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6321</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7609</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7607</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6544</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5202</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>7570</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4516</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5797</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5295</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5799</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6511</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3521</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6780</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5295</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5797</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6511</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5798</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>4696</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3026</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5783</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5772</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>16895</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8155</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2183</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3274</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5772</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5783</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>8166</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>7603</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3431</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4494</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>10266</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>8291</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>8334</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>8341</v>
       </c>
     </row>

--- a/ta/校估.xlsx
+++ b/ta/校估.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\Traffic-Assignment-Model\ta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971ED556-1867-4D98-AC88-FC7676AC335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA65C52A-45E6-4057-A310-F82D8F2BBA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
+    <workbookView xWindow="300" yWindow="2610" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,10 @@
   </si>
   <si>
     <t>淡水出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,16 +768,16 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -793,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -813,7 +817,7 @@
         <v>10115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -833,7 +837,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -853,7 +857,7 @@
         <v>5871</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -873,7 +877,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -893,7 +897,7 @@
         <v>8115</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -914,7 +918,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -934,7 +938,7 @@
         <v>6813</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -954,7 +958,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -974,7 +978,7 @@
         <v>15667</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -994,7 +998,7 @@
         <v>8289</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>10265</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>8343</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>6675</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>27271</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>6675</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>6814</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>6821</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>6820</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>6387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>9883</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>8090</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>6753</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>9143</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>6366</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>8517</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>6359</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>6386</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>6641</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>8285</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>8149</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>9085</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>8138</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>8136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>8346</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>8353</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1574,7 +1578,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>8360</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>15498</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>8365</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>9898</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>8376</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>15443</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>7928</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -1743,19 +1747,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB69EEE-758D-4994-98FD-EB06BA83BC9D}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>6392</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>6676</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>10225</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>8126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>5831</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>6542</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>6511</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>8155</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -2117,6 +2121,11 @@
       </c>
       <c r="H14">
         <v>8341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
